--- a/template/template_mutasi.xlsx
+++ b/template/template_mutasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FB722C-C0C1-459C-AAE0-4933273CDBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87363B0-E38B-4C95-891B-E0A1163324BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{31D07DC2-1F42-4D06-9382-D4F8C27158DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DAFTAR MUTASI</t>
   </si>
@@ -67,19 +67,33 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Golongan Lama</t>
+  </si>
+  <si>
+    <t>Golongan Baru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,10 +134,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E6E64F-31A8-4053-A846-C7FCC64CE3CC}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,59 +465,67 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="37.109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="9" width="30.5546875" customWidth="1"/>
-    <col min="10" max="10" width="56.77734375" customWidth="1"/>
+    <col min="6" max="11" width="30.5546875" customWidth="1"/>
+    <col min="12" max="12" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template/template_mutasi.xlsx
+++ b/template/template_mutasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87363B0-E38B-4C95-891B-E0A1163324BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342F534-8F5E-444A-8CD3-7FDD71588417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{31D07DC2-1F42-4D06-9382-D4F8C27158DC}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,11 +148,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,71 +477,77 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="11" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.5546875" customWidth="1"/>
     <col min="12" max="12" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
